--- a/inputs_stock.xlsx
+++ b/inputs_stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\anais\a.duc-martin\ETE\ete-equilibre-offre-demande\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A75D3E-D975-41CE-9201-8FAB2372D99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F64C9D2-D33F-4602-B5B0-F7F2E9C6361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASSETS" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="TIMESERIES" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Eolien_Actuel" localSheetId="2">TIMESERIES!$AE$4</definedName>
-    <definedName name="PuissanceEolien" localSheetId="2">TIMESERIES!$AB$4</definedName>
-    <definedName name="PuissancePV" localSheetId="2">TIMESERIES!$AB$3</definedName>
-    <definedName name="PV_actuel" localSheetId="2">TIMESERIES!$AE$3</definedName>
+    <definedName name="Eolien_Actuel" localSheetId="2">TIMESERIES!$AF$4</definedName>
+    <definedName name="PuissanceEolien" localSheetId="2">TIMESERIES!$AC$4</definedName>
+    <definedName name="PuissancePV" localSheetId="2">TIMESERIES!$AC$3</definedName>
+    <definedName name="PV_actuel" localSheetId="2">TIMESERIES!$AF$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -94,34 +94,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>inter</t>
-  </si>
-  <si>
-    <t>Import électricité interconnexions</t>
-  </si>
-  <si>
-    <t>Import gaz interconnexions</t>
-  </si>
-  <si>
-    <t>Export électricité interconnexions</t>
-  </si>
-  <si>
-    <t>Export gazinterconnexions</t>
-  </si>
-  <si>
-    <t>Connexion gaz Nord-Sud</t>
-  </si>
-  <si>
-    <t>Connexion H2 Nord-Sud</t>
-  </si>
-  <si>
     <t>energy_in</t>
   </si>
   <si>
     <t>energy_out</t>
-  </si>
-  <si>
-    <t>elec</t>
   </si>
   <si>
     <t>family</t>
@@ -145,9 +121,6 @@
     <t>emax</t>
   </si>
   <si>
-    <t>PV_1</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -160,19 +133,7 @@
     <t>on_init</t>
   </si>
   <si>
-    <t>STEP_pompe_1</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>e_init</t>
-  </si>
-  <si>
-    <t>H2_LOAD</t>
-  </si>
-  <si>
-    <t>GAS_LOAD</t>
   </si>
   <si>
     <t>ELEC_LOAD</t>
@@ -184,10 +145,43 @@
     <t>disp</t>
   </si>
   <si>
-    <t>CCG</t>
+    <t>Methaniseur</t>
   </si>
   <si>
-    <t>Methaniseur</t>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>region_ref</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>Gas_interconnexion_S</t>
+  </si>
+  <si>
+    <t>H2_interconnexion_S</t>
+  </si>
+  <si>
+    <t>Gas_interconnexion_N</t>
+  </si>
+  <si>
+    <t>H2_interconnexion_N</t>
+  </si>
+  <si>
+    <t>GAS_LOAD_NORTH</t>
+  </si>
+  <si>
+    <t>GAS_LOAD_SOUTH</t>
+  </si>
+  <si>
+    <t>H2_LOAD_NORTH</t>
   </si>
 </sst>
 </file>
@@ -241,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -249,9 +243,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC943"/>
+  <dimension ref="A1:O940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.54296875" customWidth="1"/>
@@ -489,329 +480,197 @@
     <col min="15" max="29" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="F2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="1">
-        <v>500000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="C6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" s="6"/>
-      <c r="F10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1720,9 +1579,6 @@
     <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -1731,80 +1587,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2785,10 +2666,6 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2797,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S193"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2808,25 +2685,26 @@
     <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" customWidth="1"/>
-    <col min="10" max="10" width="42.08984375" customWidth="1"/>
-    <col min="11" max="11" width="27.08984375" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.81640625" customWidth="1"/>
-    <col min="18" max="18" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.08984375" customWidth="1"/>
+    <col min="11" max="11" width="42.08984375" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" customWidth="1"/>
+    <col min="13" max="13" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2834,56 +2712,59 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>46207</v>
       </c>
@@ -2902,7 +2783,7 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="4">
@@ -2938,8 +2819,11 @@
       <c r="R2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>46207</v>
       </c>
@@ -2958,7 +2842,7 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="4">
@@ -2994,8 +2878,11 @@
       <c r="R3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>46207</v>
       </c>
@@ -3014,7 +2901,7 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="4">
@@ -3050,8 +2937,11 @@
       <c r="R4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>46207</v>
       </c>
@@ -3070,7 +2960,7 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="4">
@@ -3106,8 +2996,11 @@
       <c r="R5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>46207</v>
       </c>
@@ -3126,7 +3019,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="4">
@@ -3162,8 +3055,11 @@
       <c r="R6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>46207</v>
       </c>
@@ -3174,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -3182,7 +3078,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="4">
@@ -3218,8 +3114,11 @@
       <c r="R7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>46207</v>
       </c>
@@ -3230,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3238,7 +3137,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="4">
@@ -3274,8 +3173,11 @@
       <c r="R8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>46207</v>
       </c>
@@ -3286,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3294,7 +3196,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="4">
@@ -3330,8 +3232,11 @@
       <c r="R9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>46207</v>
       </c>
@@ -3342,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3350,7 +3255,7 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="4">
@@ -3386,8 +3291,11 @@
       <c r="R10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>46207</v>
       </c>
@@ -3406,7 +3314,7 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="4">
@@ -3442,8 +3350,11 @@
       <c r="R11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>46207</v>
       </c>
@@ -3462,7 +3373,7 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="4">
@@ -3498,8 +3409,11 @@
       <c r="R12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>46207</v>
       </c>
@@ -3518,7 +3432,7 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="4">
@@ -3554,8 +3468,11 @@
       <c r="R13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>46207</v>
       </c>
@@ -3574,7 +3491,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="4">
@@ -3610,8 +3527,11 @@
       <c r="R14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>46207</v>
       </c>
@@ -3630,7 +3550,7 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -3666,8 +3586,11 @@
       <c r="R15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>46207</v>
       </c>
@@ -3686,7 +3609,7 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="4">
@@ -3722,8 +3645,11 @@
       <c r="R16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>46207</v>
       </c>
@@ -3742,7 +3668,7 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="4">
@@ -3778,8 +3704,11 @@
       <c r="R17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>46207</v>
       </c>
@@ -3798,7 +3727,7 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -3834,8 +3763,11 @@
       <c r="R18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>46207</v>
       </c>
@@ -3854,7 +3786,7 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -3890,8 +3822,11 @@
       <c r="R19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>46207</v>
       </c>
@@ -3910,7 +3845,7 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="4">
@@ -3946,8 +3881,11 @@
       <c r="R20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>46207</v>
       </c>
@@ -3966,7 +3904,7 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="4">
@@ -4002,8 +3940,11 @@
       <c r="R21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>46207</v>
       </c>
@@ -4022,7 +3963,7 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="4">
@@ -4058,8 +3999,11 @@
       <c r="R22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>46207</v>
       </c>
@@ -4078,7 +4022,7 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="4">
@@ -4114,8 +4058,11 @@
       <c r="R23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>46207</v>
       </c>
@@ -4134,7 +4081,7 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="4">
@@ -4170,8 +4117,11 @@
       <c r="R24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>46207</v>
       </c>
@@ -4190,7 +4140,7 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -4226,8 +4176,11 @@
       <c r="R25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" ref="A26:A169" si="0">A2+1</f>
         <v>46208</v>
@@ -4247,7 +4200,7 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="4">
@@ -4283,8 +4236,11 @@
       <c r="R26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4304,7 +4260,7 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="4">
@@ -4340,8 +4296,11 @@
       <c r="R27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4361,7 +4320,7 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="4">
@@ -4397,8 +4356,11 @@
       <c r="R28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4418,7 +4380,7 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="4">
@@ -4454,8 +4416,11 @@
       <c r="R29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4475,7 +4440,7 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="4">
@@ -4511,8 +4476,11 @@
       <c r="R30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4532,7 +4500,7 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="4">
@@ -4568,8 +4536,11 @@
       <c r="R31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4589,7 +4560,7 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="4">
@@ -4625,8 +4596,11 @@
       <c r="R32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4646,7 +4620,7 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="4">
@@ -4682,8 +4656,11 @@
       <c r="R33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4703,7 +4680,7 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="4">
@@ -4739,8 +4716,11 @@
       <c r="R34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4760,7 +4740,7 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="4">
@@ -4796,8 +4776,11 @@
       <c r="R35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4817,7 +4800,7 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="4">
@@ -4853,8 +4836,11 @@
       <c r="R36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4874,7 +4860,7 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="4">
@@ -4910,8 +4896,11 @@
       <c r="R37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4931,7 +4920,7 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="4">
@@ -4967,8 +4956,11 @@
       <c r="R38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -4988,7 +4980,7 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="4">
@@ -5024,8 +5016,11 @@
       <c r="R39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5045,7 +5040,7 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="4">
@@ -5081,8 +5076,11 @@
       <c r="R40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5102,7 +5100,7 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="4">
@@ -5138,8 +5136,11 @@
       <c r="R41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5148,7 +5149,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -5159,7 +5160,7 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="4">
@@ -5195,8 +5196,11 @@
       <c r="R42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5205,7 +5209,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -5216,7 +5220,7 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="4">
@@ -5252,8 +5256,11 @@
       <c r="R43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5262,7 +5269,7 @@
         <v>0.75</v>
       </c>
       <c r="C44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -5273,7 +5280,7 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="4">
@@ -5309,8 +5316,11 @@
       <c r="R44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5319,7 +5329,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -5330,7 +5340,7 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="4">
@@ -5366,8 +5376,11 @@
       <c r="R45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5376,7 +5389,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -5387,7 +5400,7 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="4">
@@ -5423,8 +5436,11 @@
       <c r="R46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5444,7 +5460,7 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="4">
@@ -5480,8 +5496,11 @@
       <c r="R47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5501,7 +5520,7 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="4">
@@ -5537,8 +5556,11 @@
       <c r="R48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>46208</v>
@@ -5558,7 +5580,7 @@
       <c r="F49" s="1">
         <v>0</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="4">
@@ -5594,8 +5616,11 @@
       <c r="R49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -5615,7 +5640,7 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="1">
         <v>0</v>
       </c>
       <c r="H50" s="4">
@@ -5651,8 +5676,11 @@
       <c r="R50" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -5672,7 +5700,7 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="4">
@@ -5708,8 +5736,11 @@
       <c r="R51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -5729,7 +5760,7 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <v>0</v>
       </c>
       <c r="H52" s="4">
@@ -5765,8 +5796,11 @@
       <c r="R52" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -5786,7 +5820,7 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="4">
@@ -5822,8 +5856,11 @@
       <c r="R53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -5843,7 +5880,7 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="4">
@@ -5879,8 +5916,11 @@
       <c r="R54" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -5900,7 +5940,7 @@
       <c r="F55" s="1">
         <v>0</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>0</v>
       </c>
       <c r="H55" s="4">
@@ -5936,8 +5976,11 @@
       <c r="R55" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -5957,7 +6000,7 @@
       <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>0</v>
       </c>
       <c r="H56" s="4">
@@ -5993,8 +6036,11 @@
       <c r="R56" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6014,7 +6060,7 @@
       <c r="F57" s="1">
         <v>0</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>0</v>
       </c>
       <c r="H57" s="4">
@@ -6050,8 +6096,11 @@
       <c r="R57" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6071,7 +6120,7 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>0</v>
       </c>
       <c r="H58" s="4">
@@ -6107,8 +6156,11 @@
       <c r="R58" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6128,7 +6180,7 @@
       <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="4">
@@ -6164,8 +6216,11 @@
       <c r="R59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6185,7 +6240,7 @@
       <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="4">
@@ -6221,8 +6276,11 @@
       <c r="R60" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6242,7 +6300,7 @@
       <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="4">
@@ -6278,8 +6336,11 @@
       <c r="R61" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6299,7 +6360,7 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="4">
@@ -6335,8 +6396,11 @@
       <c r="R62" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6356,7 +6420,7 @@
       <c r="F63" s="1">
         <v>0</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="1">
         <v>0</v>
       </c>
       <c r="H63" s="4">
@@ -6392,8 +6456,11 @@
       <c r="R63" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6413,7 +6480,7 @@
       <c r="F64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="4">
@@ -6449,8 +6516,11 @@
       <c r="R64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6470,7 +6540,7 @@
       <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="1">
         <v>0</v>
       </c>
       <c r="H65" s="4">
@@ -6506,8 +6576,11 @@
       <c r="R65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6527,7 +6600,7 @@
       <c r="F66" s="1">
         <v>0</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="1">
         <v>0</v>
       </c>
       <c r="H66" s="4">
@@ -6563,8 +6636,11 @@
       <c r="R66" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6584,7 +6660,7 @@
       <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="1">
         <v>0</v>
       </c>
       <c r="H67" s="4">
@@ -6620,8 +6696,11 @@
       <c r="R67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6641,7 +6720,7 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="1">
         <v>0</v>
       </c>
       <c r="H68" s="4">
@@ -6677,8 +6756,11 @@
       <c r="R68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6698,7 +6780,7 @@
       <c r="F69" s="1">
         <v>0</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="4">
@@ -6734,8 +6816,11 @@
       <c r="R69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6755,7 +6840,7 @@
       <c r="F70" s="1">
         <v>0</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="1">
         <v>0</v>
       </c>
       <c r="H70" s="4">
@@ -6791,8 +6876,11 @@
       <c r="R70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6812,7 +6900,7 @@
       <c r="F71" s="1">
         <v>0</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="1">
         <v>0</v>
       </c>
       <c r="H71" s="4">
@@ -6848,8 +6936,11 @@
       <c r="R71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6869,7 +6960,7 @@
       <c r="F72" s="1">
         <v>0</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="4">
@@ -6905,8 +6996,11 @@
       <c r="R72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <f t="shared" si="0"/>
         <v>46209</v>
@@ -6926,7 +7020,7 @@
       <c r="F73" s="1">
         <v>0</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="1">
         <v>0</v>
       </c>
       <c r="H73" s="4">
@@ -6962,8 +7056,11 @@
       <c r="R73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -6983,7 +7080,7 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="1">
         <v>0</v>
       </c>
       <c r="H74" s="4">
@@ -7019,8 +7116,11 @@
       <c r="R74" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7040,7 +7140,7 @@
       <c r="F75" s="1">
         <v>0</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="1">
         <v>0</v>
       </c>
       <c r="H75" s="4">
@@ -7076,8 +7176,11 @@
       <c r="R75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7097,7 +7200,7 @@
       <c r="F76" s="1">
         <v>0</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="4">
@@ -7133,8 +7236,11 @@
       <c r="R76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7154,7 +7260,7 @@
       <c r="F77" s="1">
         <v>0</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="1">
         <v>0</v>
       </c>
       <c r="H77" s="4">
@@ -7190,8 +7296,11 @@
       <c r="R77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7211,7 +7320,7 @@
       <c r="F78" s="1">
         <v>0</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="1">
         <v>0</v>
       </c>
       <c r="H78" s="4">
@@ -7247,8 +7356,11 @@
       <c r="R78" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7268,7 +7380,7 @@
       <c r="F79" s="1">
         <v>0</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="1">
         <v>0</v>
       </c>
       <c r="H79" s="4">
@@ -7304,8 +7416,11 @@
       <c r="R79" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7325,7 +7440,7 @@
       <c r="F80" s="1">
         <v>0</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="1">
         <v>0</v>
       </c>
       <c r="H80" s="4">
@@ -7361,8 +7476,11 @@
       <c r="R80" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7382,7 +7500,7 @@
       <c r="F81" s="1">
         <v>0</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="1">
         <v>0</v>
       </c>
       <c r="H81" s="4">
@@ -7418,8 +7536,11 @@
       <c r="R81" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7439,7 +7560,7 @@
       <c r="F82" s="1">
         <v>0</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="1">
         <v>0</v>
       </c>
       <c r="H82" s="4">
@@ -7475,8 +7596,11 @@
       <c r="R82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7496,7 +7620,7 @@
       <c r="F83" s="1">
         <v>0</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="H83" s="4">
@@ -7532,8 +7656,11 @@
       <c r="R83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7553,7 +7680,7 @@
       <c r="F84" s="1">
         <v>0</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="1">
         <v>0</v>
       </c>
       <c r="H84" s="4">
@@ -7589,8 +7716,11 @@
       <c r="R84" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7610,7 +7740,7 @@
       <c r="F85" s="1">
         <v>0</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="1">
         <v>0</v>
       </c>
       <c r="H85" s="4">
@@ -7646,8 +7776,11 @@
       <c r="R85" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7667,7 +7800,7 @@
       <c r="F86" s="1">
         <v>0</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="1">
         <v>0</v>
       </c>
       <c r="H86" s="4">
@@ -7703,8 +7836,11 @@
       <c r="R86" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7724,7 +7860,7 @@
       <c r="F87" s="1">
         <v>0</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="1">
         <v>0</v>
       </c>
       <c r="H87" s="4">
@@ -7760,8 +7896,11 @@
       <c r="R87" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7781,7 +7920,7 @@
       <c r="F88" s="1">
         <v>0</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="1">
         <v>0</v>
       </c>
       <c r="H88" s="4">
@@ -7817,8 +7956,11 @@
       <c r="R88" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7838,7 +7980,7 @@
       <c r="F89" s="1">
         <v>0</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="1">
         <v>0</v>
       </c>
       <c r="H89" s="4">
@@ -7874,8 +8016,11 @@
       <c r="R89" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7895,7 +8040,7 @@
       <c r="F90" s="1">
         <v>0</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="1">
         <v>0</v>
       </c>
       <c r="H90" s="4">
@@ -7931,8 +8076,11 @@
       <c r="R90" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -7952,7 +8100,7 @@
       <c r="F91" s="1">
         <v>0</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="1">
         <v>0</v>
       </c>
       <c r="H91" s="4">
@@ -7988,8 +8136,11 @@
       <c r="R91" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -8009,7 +8160,7 @@
       <c r="F92" s="1">
         <v>0</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="1">
         <v>0</v>
       </c>
       <c r="H92" s="4">
@@ -8045,8 +8196,11 @@
       <c r="R92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -8066,7 +8220,7 @@
       <c r="F93" s="1">
         <v>0</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="1">
         <v>0</v>
       </c>
       <c r="H93" s="4">
@@ -8102,8 +8256,11 @@
       <c r="R93" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -8123,7 +8280,7 @@
       <c r="F94" s="1">
         <v>0</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="1">
         <v>0</v>
       </c>
       <c r="H94" s="4">
@@ -8159,8 +8316,11 @@
       <c r="R94" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -8180,7 +8340,7 @@
       <c r="F95" s="1">
         <v>0</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="4">
@@ -8216,8 +8376,11 @@
       <c r="R95" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -8237,7 +8400,7 @@
       <c r="F96" s="1">
         <v>0</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="4">
@@ -8273,8 +8436,11 @@
       <c r="R96" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <f t="shared" si="0"/>
         <v>46210</v>
@@ -8294,7 +8460,7 @@
       <c r="F97" s="1">
         <v>0</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="1">
         <v>0</v>
       </c>
       <c r="H97" s="4">
@@ -8330,8 +8496,11 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8351,7 +8520,7 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="1">
         <v>0</v>
       </c>
       <c r="H98" s="4">
@@ -8387,8 +8556,11 @@
       <c r="R98" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8408,7 +8580,7 @@
       <c r="F99" s="1">
         <v>0</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="1">
         <v>0</v>
       </c>
       <c r="H99" s="4">
@@ -8444,8 +8616,11 @@
       <c r="R99" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8465,7 +8640,7 @@
       <c r="F100" s="1">
         <v>0</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="1">
         <v>0</v>
       </c>
       <c r="H100" s="4">
@@ -8501,8 +8676,11 @@
       <c r="R100" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8522,7 +8700,7 @@
       <c r="F101" s="1">
         <v>0</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="1">
         <v>0</v>
       </c>
       <c r="H101" s="4">
@@ -8558,8 +8736,11 @@
       <c r="R101" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8579,7 +8760,7 @@
       <c r="F102" s="1">
         <v>0</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="1">
         <v>0</v>
       </c>
       <c r="H102" s="4">
@@ -8615,8 +8796,11 @@
       <c r="R102" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8636,7 +8820,7 @@
       <c r="F103" s="1">
         <v>0</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="1">
         <v>0</v>
       </c>
       <c r="H103" s="4">
@@ -8672,8 +8856,11 @@
       <c r="R103" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8693,7 +8880,7 @@
       <c r="F104" s="1">
         <v>0</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="4">
@@ -8729,8 +8916,11 @@
       <c r="R104" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8750,7 +8940,7 @@
       <c r="F105" s="1">
         <v>0</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="1">
         <v>0</v>
       </c>
       <c r="H105" s="4">
@@ -8786,8 +8976,11 @@
       <c r="R105" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8807,7 +9000,7 @@
       <c r="F106" s="1">
         <v>0</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="1">
         <v>0</v>
       </c>
       <c r="H106" s="4">
@@ -8843,8 +9036,11 @@
       <c r="R106" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8864,7 +9060,7 @@
       <c r="F107" s="1">
         <v>0</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="1">
         <v>0</v>
       </c>
       <c r="H107" s="4">
@@ -8900,8 +9096,11 @@
       <c r="R107" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8921,7 +9120,7 @@
       <c r="F108" s="1">
         <v>0</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="1">
         <v>0</v>
       </c>
       <c r="H108" s="4">
@@ -8957,8 +9156,11 @@
       <c r="R108" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -8978,7 +9180,7 @@
       <c r="F109" s="1">
         <v>0</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="1">
         <v>0</v>
       </c>
       <c r="H109" s="4">
@@ -9014,8 +9216,11 @@
       <c r="R109" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9035,7 +9240,7 @@
       <c r="F110" s="1">
         <v>0</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="1">
         <v>0</v>
       </c>
       <c r="H110" s="4">
@@ -9071,8 +9276,11 @@
       <c r="R110" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9092,7 +9300,7 @@
       <c r="F111" s="1">
         <v>0</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="1">
         <v>0</v>
       </c>
       <c r="H111" s="4">
@@ -9128,8 +9336,11 @@
       <c r="R111" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9149,7 +9360,7 @@
       <c r="F112" s="1">
         <v>0</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="1">
         <v>0</v>
       </c>
       <c r="H112" s="4">
@@ -9185,8 +9396,11 @@
       <c r="R112" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9206,7 +9420,7 @@
       <c r="F113" s="1">
         <v>0</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="1">
         <v>0</v>
       </c>
       <c r="H113" s="4">
@@ -9242,8 +9456,11 @@
       <c r="R113" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9263,7 +9480,7 @@
       <c r="F114" s="1">
         <v>0</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="1">
         <v>0</v>
       </c>
       <c r="H114" s="4">
@@ -9299,8 +9516,11 @@
       <c r="R114" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9320,7 +9540,7 @@
       <c r="F115" s="1">
         <v>0</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="1">
         <v>0</v>
       </c>
       <c r="H115" s="4">
@@ -9356,8 +9576,11 @@
       <c r="R115" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9377,7 +9600,7 @@
       <c r="F116" s="1">
         <v>0</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="1">
         <v>0</v>
       </c>
       <c r="H116" s="4">
@@ -9413,8 +9636,11 @@
       <c r="R116" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9434,7 +9660,7 @@
       <c r="F117" s="1">
         <v>0</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="1">
         <v>0</v>
       </c>
       <c r="H117" s="4">
@@ -9470,8 +9696,11 @@
       <c r="R117" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9491,7 +9720,7 @@
       <c r="F118" s="1">
         <v>0</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="1">
         <v>0</v>
       </c>
       <c r="H118" s="4">
@@ -9527,8 +9756,11 @@
       <c r="R118" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9548,7 +9780,7 @@
       <c r="F119" s="1">
         <v>0</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="1">
         <v>0</v>
       </c>
       <c r="H119" s="4">
@@ -9584,8 +9816,11 @@
       <c r="R119" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9605,7 +9840,7 @@
       <c r="F120" s="1">
         <v>0</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="1">
         <v>0</v>
       </c>
       <c r="H120" s="4">
@@ -9641,8 +9876,11 @@
       <c r="R120" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <f t="shared" si="0"/>
         <v>46211</v>
@@ -9662,7 +9900,7 @@
       <c r="F121" s="1">
         <v>0</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="1">
         <v>0</v>
       </c>
       <c r="H121" s="4">
@@ -9698,8 +9936,11 @@
       <c r="R121" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -9719,7 +9960,7 @@
       <c r="F122" s="1">
         <v>0</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="1">
         <v>0</v>
       </c>
       <c r="H122" s="4">
@@ -9755,8 +9996,11 @@
       <c r="R122" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -9776,7 +10020,7 @@
       <c r="F123" s="1">
         <v>0</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="1">
         <v>0</v>
       </c>
       <c r="H123" s="4">
@@ -9812,8 +10056,11 @@
       <c r="R123" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -9833,7 +10080,7 @@
       <c r="F124" s="1">
         <v>0</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="1">
         <v>0</v>
       </c>
       <c r="H124" s="4">
@@ -9869,8 +10116,11 @@
       <c r="R124" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -9890,7 +10140,7 @@
       <c r="F125" s="1">
         <v>0</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125" s="1">
         <v>0</v>
       </c>
       <c r="H125" s="4">
@@ -9926,8 +10176,11 @@
       <c r="R125" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -9947,7 +10200,7 @@
       <c r="F126" s="1">
         <v>0</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="1">
         <v>0</v>
       </c>
       <c r="H126" s="4">
@@ -9983,8 +10236,11 @@
       <c r="R126" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10004,7 +10260,7 @@
       <c r="F127" s="1">
         <v>0</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="1">
         <v>0</v>
       </c>
       <c r="H127" s="4">
@@ -10040,8 +10296,11 @@
       <c r="R127" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10061,7 +10320,7 @@
       <c r="F128" s="1">
         <v>0</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="1">
         <v>0</v>
       </c>
       <c r="H128" s="4">
@@ -10097,8 +10356,11 @@
       <c r="R128" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10118,7 +10380,7 @@
       <c r="F129" s="1">
         <v>0</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="1">
         <v>0</v>
       </c>
       <c r="H129" s="4">
@@ -10154,8 +10416,11 @@
       <c r="R129" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10175,7 +10440,7 @@
       <c r="F130" s="1">
         <v>0</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130" s="1">
         <v>0</v>
       </c>
       <c r="H130" s="4">
@@ -10211,8 +10476,11 @@
       <c r="R130" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10232,7 +10500,7 @@
       <c r="F131" s="1">
         <v>0</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="1">
         <v>0</v>
       </c>
       <c r="H131" s="4">
@@ -10268,8 +10536,11 @@
       <c r="R131" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10289,7 +10560,7 @@
       <c r="F132" s="1">
         <v>0</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="1">
         <v>0</v>
       </c>
       <c r="H132" s="4">
@@ -10325,8 +10596,11 @@
       <c r="R132" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10346,7 +10620,7 @@
       <c r="F133" s="1">
         <v>0</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="1">
         <v>0</v>
       </c>
       <c r="H133" s="4">
@@ -10382,8 +10656,11 @@
       <c r="R133" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10403,7 +10680,7 @@
       <c r="F134" s="1">
         <v>0</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="1">
         <v>0</v>
       </c>
       <c r="H134" s="4">
@@ -10439,8 +10716,11 @@
       <c r="R134" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10460,7 +10740,7 @@
       <c r="F135" s="1">
         <v>0</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135" s="1">
         <v>0</v>
       </c>
       <c r="H135" s="4">
@@ -10496,8 +10776,11 @@
       <c r="R135" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10517,7 +10800,7 @@
       <c r="F136" s="1">
         <v>0</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="1">
         <v>0</v>
       </c>
       <c r="H136" s="4">
@@ -10553,8 +10836,11 @@
       <c r="R136" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10574,7 +10860,7 @@
       <c r="F137" s="1">
         <v>0</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137" s="1">
         <v>0</v>
       </c>
       <c r="H137" s="4">
@@ -10610,8 +10896,11 @@
       <c r="R137" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10631,7 +10920,7 @@
       <c r="F138" s="1">
         <v>0</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="1">
         <v>0</v>
       </c>
       <c r="H138" s="4">
@@ -10667,8 +10956,11 @@
       <c r="R138" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10688,7 +10980,7 @@
       <c r="F139" s="1">
         <v>0</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="1">
         <v>0</v>
       </c>
       <c r="H139" s="4">
@@ -10724,8 +11016,11 @@
       <c r="R139" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10745,7 +11040,7 @@
       <c r="F140" s="1">
         <v>0</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140" s="1">
         <v>0</v>
       </c>
       <c r="H140" s="4">
@@ -10781,8 +11076,11 @@
       <c r="R140" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10802,7 +11100,7 @@
       <c r="F141" s="1">
         <v>0</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="1">
         <v>0</v>
       </c>
       <c r="H141" s="4">
@@ -10838,8 +11136,11 @@
       <c r="R141" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10859,7 +11160,7 @@
       <c r="F142" s="1">
         <v>0</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="1">
         <v>0</v>
       </c>
       <c r="H142" s="4">
@@ -10895,8 +11196,11 @@
       <c r="R142" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10916,7 +11220,7 @@
       <c r="F143" s="1">
         <v>0</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="1">
         <v>0</v>
       </c>
       <c r="H143" s="4">
@@ -10952,8 +11256,11 @@
       <c r="R143" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -10973,7 +11280,7 @@
       <c r="F144" s="1">
         <v>0</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="1">
         <v>0</v>
       </c>
       <c r="H144" s="4">
@@ -11009,8 +11316,11 @@
       <c r="R144" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <f t="shared" si="0"/>
         <v>46212</v>
@@ -11030,7 +11340,7 @@
       <c r="F145" s="1">
         <v>0</v>
       </c>
-      <c r="G145" s="4">
+      <c r="G145" s="1">
         <v>0</v>
       </c>
       <c r="H145" s="4">
@@ -11066,8 +11376,11 @@
       <c r="R145" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11087,7 +11400,7 @@
       <c r="F146" s="1">
         <v>0</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="1">
         <v>0</v>
       </c>
       <c r="H146" s="4">
@@ -11123,8 +11436,11 @@
       <c r="R146" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11144,7 +11460,7 @@
       <c r="F147" s="1">
         <v>0</v>
       </c>
-      <c r="G147" s="4">
+      <c r="G147" s="1">
         <v>0</v>
       </c>
       <c r="H147" s="4">
@@ -11180,8 +11496,11 @@
       <c r="R147" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11201,7 +11520,7 @@
       <c r="F148" s="1">
         <v>0</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="1">
         <v>0</v>
       </c>
       <c r="H148" s="4">
@@ -11237,8 +11556,11 @@
       <c r="R148" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11258,7 +11580,7 @@
       <c r="F149" s="1">
         <v>0</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="1">
         <v>0</v>
       </c>
       <c r="H149" s="4">
@@ -11294,8 +11616,11 @@
       <c r="R149" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11315,7 +11640,7 @@
       <c r="F150" s="1">
         <v>0</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="1">
         <v>0</v>
       </c>
       <c r="H150" s="4">
@@ -11351,8 +11676,11 @@
       <c r="R150" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11372,7 +11700,7 @@
       <c r="F151" s="1">
         <v>0</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="1">
         <v>0</v>
       </c>
       <c r="H151" s="4">
@@ -11408,8 +11736,11 @@
       <c r="R151" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11429,7 +11760,7 @@
       <c r="F152" s="1">
         <v>0</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152" s="1">
         <v>0</v>
       </c>
       <c r="H152" s="4">
@@ -11465,8 +11796,11 @@
       <c r="R152" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11486,7 +11820,7 @@
       <c r="F153" s="1">
         <v>0</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="1">
         <v>0</v>
       </c>
       <c r="H153" s="4">
@@ -11522,8 +11856,11 @@
       <c r="R153" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11543,7 +11880,7 @@
       <c r="F154" s="1">
         <v>0</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="1">
         <v>0</v>
       </c>
       <c r="H154" s="4">
@@ -11579,8 +11916,11 @@
       <c r="R154" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11600,7 +11940,7 @@
       <c r="F155" s="1">
         <v>0</v>
       </c>
-      <c r="G155" s="4">
+      <c r="G155" s="1">
         <v>0</v>
       </c>
       <c r="H155" s="4">
@@ -11636,8 +11976,11 @@
       <c r="R155" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11657,7 +12000,7 @@
       <c r="F156" s="1">
         <v>0</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="1">
         <v>0</v>
       </c>
       <c r="H156" s="4">
@@ -11693,8 +12036,11 @@
       <c r="R156" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11714,7 +12060,7 @@
       <c r="F157" s="1">
         <v>0</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157" s="1">
         <v>0</v>
       </c>
       <c r="H157" s="4">
@@ -11750,8 +12096,11 @@
       <c r="R157" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11771,7 +12120,7 @@
       <c r="F158" s="1">
         <v>0</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="1">
         <v>0</v>
       </c>
       <c r="H158" s="4">
@@ -11807,8 +12156,11 @@
       <c r="R158" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11828,7 +12180,7 @@
       <c r="F159" s="1">
         <v>0</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="1">
         <v>0</v>
       </c>
       <c r="H159" s="4">
@@ -11864,8 +12216,11 @@
       <c r="R159" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11885,7 +12240,7 @@
       <c r="F160" s="1">
         <v>0</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160" s="1">
         <v>0</v>
       </c>
       <c r="H160" s="4">
@@ -11921,8 +12276,11 @@
       <c r="R160" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11942,7 +12300,7 @@
       <c r="F161" s="1">
         <v>0</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="1">
         <v>0</v>
       </c>
       <c r="H161" s="4">
@@ -11978,8 +12336,11 @@
       <c r="R161" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -11999,7 +12360,7 @@
       <c r="F162" s="1">
         <v>0</v>
       </c>
-      <c r="G162" s="4">
+      <c r="G162" s="1">
         <v>0</v>
       </c>
       <c r="H162" s="4">
@@ -12035,8 +12396,11 @@
       <c r="R162" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -12056,7 +12420,7 @@
       <c r="F163" s="1">
         <v>0</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="1">
         <v>0</v>
       </c>
       <c r="H163" s="4">
@@ -12092,8 +12456,11 @@
       <c r="R163" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -12113,7 +12480,7 @@
       <c r="F164" s="1">
         <v>0</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="1">
         <v>0</v>
       </c>
       <c r="H164" s="4">
@@ -12149,8 +12516,11 @@
       <c r="R164" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -12170,7 +12540,7 @@
       <c r="F165" s="1">
         <v>0</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165" s="1">
         <v>0</v>
       </c>
       <c r="H165" s="4">
@@ -12206,8 +12576,11 @@
       <c r="R165" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -12227,7 +12600,7 @@
       <c r="F166" s="1">
         <v>0</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="1">
         <v>0</v>
       </c>
       <c r="H166" s="4">
@@ -12263,8 +12636,11 @@
       <c r="R166" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -12284,7 +12660,7 @@
       <c r="F167" s="1">
         <v>0</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="1">
         <v>0</v>
       </c>
       <c r="H167" s="4">
@@ -12320,8 +12696,11 @@
       <c r="R167" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -12341,7 +12720,7 @@
       <c r="F168" s="1">
         <v>0</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="1">
         <v>0</v>
       </c>
       <c r="H168" s="4">
@@ -12377,8 +12756,11 @@
       <c r="R168" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <f t="shared" si="0"/>
         <v>46213</v>
@@ -12398,7 +12780,7 @@
       <c r="F169" s="1">
         <v>0</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="1">
         <v>0</v>
       </c>
       <c r="H169" s="4">
@@ -12434,150 +12816,153 @@
       <c r="R169" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
-      <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
-      <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
-      <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
-      <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
-      <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
-      <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
-      <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
-      <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
-      <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
-      <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
-      <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
-      <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
-      <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
-      <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
-      <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
-      <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
-      <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
-      <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
-      <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
-      <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
-      <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
-      <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
-      <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
-      <c r="F193" s="1"/>
       <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
